--- a/report.xlsx
+++ b/report.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIO_PONDERADO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ENERGY" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COSTE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PRECIO PONDERADO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ENERGÍA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="COSTE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="P.GENERAL" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="P.FORMULA" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +39,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -51,17 +53,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0053B466"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0052B365"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0039A257"/>
+        <fgColor rgb="002A924A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00218944"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00208843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0094D390"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D594"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5DB9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5EFCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8F0D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF1D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -71,7 +103,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007DB8DA"/>
+        <fgColor rgb="00DEF2D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6EFD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F6E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F7FD"/>
       </patternFill>
     </fill>
     <fill>
@@ -81,32 +128,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D7E6F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F1FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F6EB3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFE1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAE8F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A3CCE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCDFF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3E3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6E6F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEE0F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F7FBFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003989C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7F0FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBF7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDE5B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABDDA5"/>
+        <fgColor rgb="00E1EDF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F6E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCF2D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2EDCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EECD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEECC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1EDCB"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -157,16 +264,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -532,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +691,21 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>P6</t>
         </is>
       </c>
@@ -579,13 +722,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1029182152499767</v>
+        <v>0.08135978319783198</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08282469030293553</v>
+        <v>0.07042344129554656</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05530629158772798</v>
+        <v>0.05998020497803806</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05202988520408163</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04488829931972789</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05063089364593952</v>
       </c>
     </row>
     <row r="3">
@@ -596,13 +748,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01368863150527273</v>
+        <v>0.005356640230903252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01389527549927696</v>
+        <v>0.006470487651502024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01356369274642776</v>
+        <v>0.005672764919645534</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.005589339378497194</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.005640118218447279</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00570546839122365</v>
       </c>
     </row>
     <row r="4">
@@ -613,12 +774,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001443</v>
+        <v>0.000891609756097561</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006669999999999999</v>
+        <v>0.000419912955465587</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000256778916544656</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0001864630102040817</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0001789591836734694</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -630,181 +800,245 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.00019673</v>
+        <v>0.0001215567479674797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00019673</v>
+        <v>0.0001238522874493927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00019673</v>
+        <v>0.0001137750366032211</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000110158762755102</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0001057256462585034</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0001032113897383622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>DESVIOS</t>
+          <t>MARGEN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>MARGEN</t>
+          <t>FNEE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>FNEE</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0003</v>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.08772958993280028</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.07743769418996356</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.06602352385083148</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.05791584635553801</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.05081310236810715</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>0.05643957342690153</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>COSTES_ADQUISICION</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0.1193465767552495</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0.09868369580221249</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.07016671433415574</v>
+          <t>PERDIDAS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0147954237215485</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01446982715655937</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01062705091144544</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.009220994245255978</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.008485789132719131</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01109696194063307</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>COSTES_ADQUISICION</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>PERDIDAS</t>
+          <t>TASA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02237314180329137</v>
+        <v>0.001537875204815232</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01995895020906527</v>
+        <v>0.001378612820197844</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01604231808542095</v>
+        <v>0.001149758621434154</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00100705260901191</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.000889483372512394</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001013048030513019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>TASA</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002125795778378113</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.001779639690169166</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.00129313548629365</v>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.104062888859164</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>0.09328613416672078</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0.07780033338371108</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0.06814389320980591</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.06018837487333867</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <v>0.06854958339804762</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>PRECIO_TERMINO</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
+          <t>PYC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02714682926829268</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02128083603238867</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.009351610541727673</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.005341353316326529</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.001907285714285714</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001243384301732926</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>0.143845514336919</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0.1204222857014469</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>0.08750216790587034</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>PRECIO_TERMINO</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>PYC</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.043935</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.033803</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.00237</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0.187780514336919</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>0.1542252857014469</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>0.08987216790587035</v>
+      <c r="C13" s="2" t="n">
+        <v>0.1312097181274567</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <v>0.1145669701991094</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>0.08715194392543875</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>0.07348524652613242</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06209566058762439</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>0.06979296769978054</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -816,7 +1050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,10 +1071,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>P6</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -852,17 +1101,26 @@
           <t>ENERGY (kWh)</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>139633</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>108703</v>
-      </c>
-      <c r="D2" s="9" t="n">
-        <v>176825</v>
-      </c>
-      <c r="E2" t="n">
-        <v>425161</v>
+      <c r="B2" s="16" t="n">
+        <v>369</v>
+      </c>
+      <c r="C2" s="17" t="n">
+        <v>494</v>
+      </c>
+      <c r="D2" s="18" t="n">
+        <v>683</v>
+      </c>
+      <c r="E2" s="19" t="n">
+        <v>784</v>
+      </c>
+      <c r="F2" s="20" t="n">
+        <v>294</v>
+      </c>
+      <c r="G2" s="21" t="n">
+        <v>2943</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5567</v>
       </c>
     </row>
     <row r="3">
@@ -871,16 +1129,25 @@
           <t>PRECIO (€/kWh)</t>
         </is>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>0.187780514336919</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>0.1542252857014469</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>0.08987216790587035</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" s="21" t="n">
+        <v>0.1312097181274567</v>
+      </c>
+      <c r="C3" s="22" t="n">
+        <v>0.1145669701991094</v>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>0.08715194392543875</v>
+      </c>
+      <c r="E3" s="24" t="n">
+        <v>0.07348524652613242</v>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>0.06209566058762439</v>
+      </c>
+      <c r="G3" s="25" t="n">
+        <v>0.06979296769978054</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -888,17 +1155,26 @@
           <t>COSTE (€)</t>
         </is>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>26220.35655840701</v>
-      </c>
-      <c r="C4" s="11" t="n">
-        <v>16764.75123160438</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>15891.64608995553</v>
-      </c>
-      <c r="E4" t="n">
-        <v>484037.7538799669</v>
+      <c r="B4" s="26" t="n">
+        <v>48.41638598903152</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>56.59608327836006</v>
+      </c>
+      <c r="D4" s="28" t="n">
+        <v>59.52477770107467</v>
+      </c>
+      <c r="E4" s="29" t="n">
+        <v>57.61243327648782</v>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>18.25612421276157</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>205.4007039404541</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6012.80650839817</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +1188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,6 +1219,21 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>P6</t>
         </is>
       </c>
@@ -959,13 +1250,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14370.77915</v>
+        <v>30.02176</v>
       </c>
       <c r="D2" t="n">
-        <v>9003.292310000001</v>
+        <v>34.78918</v>
       </c>
       <c r="E2" t="n">
-        <v>9779.53501</v>
+        <v>40.96648</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40.79143</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.19716</v>
+      </c>
+      <c r="H2" t="n">
+        <v>149.00672</v>
       </c>
     </row>
     <row r="3">
@@ -976,13 +1276,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1911.384682975748</v>
+        <v>1.9766002452033</v>
       </c>
       <c r="D3" t="n">
-        <v>1510.458132597903</v>
+        <v>3.196420899842</v>
       </c>
       <c r="E3" t="n">
-        <v>2398.399969887089</v>
+        <v>3.8744984401179</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.3820420727418</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.6581947562235</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16.7911934753712</v>
       </c>
     </row>
     <row r="4">
@@ -993,12 +1302,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>201.490419</v>
+        <v>0.329004</v>
       </c>
       <c r="D4" t="n">
-        <v>72.50490099999999</v>
+        <v>0.207437</v>
       </c>
       <c r="E4" t="n">
+        <v>0.17538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.146187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.052614</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1010,182 +1328,379 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27.47000009</v>
+        <v>0.04485444</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38514119</v>
+        <v>0.06118303</v>
       </c>
       <c r="E5" t="n">
-        <v>34.78678225</v>
+        <v>0.07770835</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08636447</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03108334</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.30375112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>DESVIOS</t>
+          <t>MARGEN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69.8165</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>54.3515</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>88.41250000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>MARGEN</t>
+          <t>FNEE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41.8899</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.6109</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.04750000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>FNEE</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>41.8899</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32.6109</v>
-      </c>
-      <c r="E8" t="n">
-        <v>53.04750000000001</v>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C8" s="30" t="n">
+        <v>32.3722186852033</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>38.254220929842</v>
+      </c>
+      <c r="E8" s="31" t="n">
+        <v>45.0940667901179</v>
+      </c>
+      <c r="F8" s="31" t="n">
+        <v>45.4060235427418</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>14.9390520962235</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>166.1016645953712</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>COSTES_ADQUISICION</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>16664.72055206575</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>10727.2137847879</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <v>12407.22926213709</v>
+          <t>PERDIDAS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5.459511353251396</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.148094615340328</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.258275772517234</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.229259488280688</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.494822005019425</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32.65835899128311</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>COSTES_ADQUISICION</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>PERDIDAS</t>
+          <t>TASA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3124.028909418984</v>
+        <v>0.5674759505768204</v>
       </c>
       <c r="D10" t="n">
-        <v>2169.597764576022</v>
+        <v>0.6810347331777349</v>
       </c>
       <c r="E10" t="n">
-        <v>2836.682895454559</v>
+        <v>0.785285138439527</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7895292454653373</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2615081115186438</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.981400353799815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>TASA</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>296.831241922271</v>
-      </c>
-      <c r="D11" t="n">
-        <v>193.4521732404589</v>
-      </c>
-      <c r="E11" t="n">
-        <v>228.6586823638747</v>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>38.39920598903152</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>46.08335027836007</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>53.13762770107466</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>53.42481227648783</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>17.69538221276157</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>201.7414239404541</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>PRECIO_TERMINO</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
+          <t>PYC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10.01718</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.512733</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.38715</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.187620999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.560742</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.65928</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>20085.58070340701</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>13090.26372260438</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <v>15472.57083995552</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>PRECIO_TERMINO</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>PYC</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>6134.775855</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3674.487509</v>
-      </c>
-      <c r="E13" t="n">
-        <v>419.07525</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>26220.35655840701</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>16764.75123160438</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>15891.64608995552</v>
+      <c r="C13" s="32" t="n">
+        <v>48.41638598903152</v>
+      </c>
+      <c r="D13" s="33" t="n">
+        <v>56.59608327836006</v>
+      </c>
+      <c r="E13" s="34" t="n">
+        <v>59.52477770107466</v>
+      </c>
+      <c r="F13" s="35" t="n">
+        <v>57.61243327648782</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>18.25612421276157</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>205.4007039404541</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ATR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DESVIOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DATES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3.0TD</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3.0TD</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MARGEN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FNEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pérdidas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pérdidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>